--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col4a1-Cd93.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H2">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I2">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J2">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N2">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O2">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P2">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q2">
-        <v>59346.13679468291</v>
+        <v>38531.82353954227</v>
       </c>
       <c r="R2">
-        <v>534115.2311521462</v>
+        <v>346786.4118558805</v>
       </c>
       <c r="S2">
-        <v>0.3525724396862946</v>
+        <v>0.3726823844723487</v>
       </c>
       <c r="T2">
-        <v>0.3854825856103379</v>
+        <v>0.3799614127185338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H3">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I3">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J3">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.869893</v>
       </c>
       <c r="O3">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P3">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q3">
-        <v>87.41868788372999</v>
+        <v>68.66201229631822</v>
       </c>
       <c r="R3">
-        <v>786.76819095357</v>
+        <v>617.9581106668641</v>
       </c>
       <c r="S3">
-        <v>0.0005193500660029961</v>
+        <v>0.0006641035932026791</v>
       </c>
       <c r="T3">
-        <v>0.0005678277248722708</v>
+        <v>0.0006770745009104837</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H4">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I4">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J4">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N4">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O4">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P4">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q4">
-        <v>16470.44884985724</v>
+        <v>14581.9714223358</v>
       </c>
       <c r="R4">
-        <v>148234.0396487151</v>
+        <v>131237.7428010222</v>
       </c>
       <c r="S4">
-        <v>0.09785011539694306</v>
+        <v>0.141037806695206</v>
       </c>
       <c r="T4">
-        <v>0.1069837322481727</v>
+        <v>0.1437924799008309</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H5">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I5">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J5">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N5">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O5">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P5">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q5">
-        <v>1312.06959506889</v>
+        <v>685.4553693849253</v>
       </c>
       <c r="R5">
-        <v>7872.417570413339</v>
+        <v>4112.732216309552</v>
       </c>
       <c r="S5">
-        <v>0.007794940044237109</v>
+        <v>0.006629770357211158</v>
       </c>
       <c r="T5">
-        <v>0.00568169507823442</v>
+        <v>0.00450617293416742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>301.48083</v>
+        <v>236.7946826666667</v>
       </c>
       <c r="H6">
-        <v>904.4424899999999</v>
+        <v>710.384048</v>
       </c>
       <c r="I6">
-        <v>0.5977744084099033</v>
+        <v>0.7123899543147419</v>
       </c>
       <c r="J6">
-        <v>0.6507315779475965</v>
+        <v>0.7240508783182559</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N6">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O6">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P6">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q6">
-        <v>23403.25367911083</v>
+        <v>19786.45167974176</v>
       </c>
       <c r="R6">
-        <v>210629.2831119975</v>
+        <v>178078.0651176759</v>
       </c>
       <c r="S6">
-        <v>0.1390375632164254</v>
+        <v>0.1913758891967735</v>
       </c>
       <c r="T6">
-        <v>0.1520157372859791</v>
+        <v>0.1951137382638132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>235.201477</v>
       </c>
       <c r="I7">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J7">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N7">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O7">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P7">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q7">
-        <v>15433.04210348794</v>
+        <v>12757.52437504581</v>
       </c>
       <c r="R7">
-        <v>138897.3789313915</v>
+        <v>114817.7193754123</v>
       </c>
       <c r="S7">
-        <v>0.09168693364208255</v>
+        <v>0.1233916323523333</v>
       </c>
       <c r="T7">
-        <v>0.1002452610263041</v>
+        <v>0.125801650144044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>235.201477</v>
       </c>
       <c r="I8">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J8">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,10 +936,10 @@
         <v>0.869893</v>
       </c>
       <c r="O8">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P8">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q8">
         <v>22.73334649244011</v>
@@ -948,10 +948,10 @@
         <v>204.600118431961</v>
       </c>
       <c r="S8">
-        <v>0.0001350576780221285</v>
+        <v>0.0002198784536928077</v>
       </c>
       <c r="T8">
-        <v>0.000147664357931158</v>
+        <v>0.000224172999241086</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>235.201477</v>
       </c>
       <c r="I9">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J9">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N9">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O9">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P9">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q9">
-        <v>4283.162212269986</v>
+        <v>4827.953591808653</v>
       </c>
       <c r="R9">
-        <v>38548.45991042988</v>
+        <v>43451.58232627787</v>
       </c>
       <c r="S9">
-        <v>0.02544605314372332</v>
+        <v>0.04669629131023637</v>
       </c>
       <c r="T9">
-        <v>0.02782126239971626</v>
+        <v>0.04760833770040997</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>235.201477</v>
       </c>
       <c r="I10">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J10">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N10">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O10">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P10">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q10">
-        <v>341.2054498755303</v>
+        <v>226.9478259693622</v>
       </c>
       <c r="R10">
-        <v>2047.232699253182</v>
+        <v>1361.686955816173</v>
       </c>
       <c r="S10">
-        <v>0.00202708456513472</v>
+        <v>0.002195054611061427</v>
       </c>
       <c r="T10">
-        <v>0.001477532390439072</v>
+        <v>0.001491951477116503</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>235.201477</v>
       </c>
       <c r="I11">
-        <v>0.1554520329654243</v>
+        <v>0.2358656137148928</v>
       </c>
       <c r="J11">
-        <v>0.1692236156041446</v>
+        <v>0.2397264359793184</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N11">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O11">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P11">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q11">
-        <v>6086.047363755049</v>
+        <v>6551.10805594046</v>
       </c>
       <c r="R11">
-        <v>54774.42627379544</v>
+        <v>58959.97250346414</v>
       </c>
       <c r="S11">
-        <v>0.03615690393646159</v>
+        <v>0.06336275698756888</v>
       </c>
       <c r="T11">
-        <v>0.03953189542975394</v>
+        <v>0.06460032365850686</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H12">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I12">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J12">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N12">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O12">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P12">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q12">
-        <v>129.0108916596471</v>
+        <v>102.6000097650711</v>
       </c>
       <c r="R12">
-        <v>1161.098024936824</v>
+        <v>923.40008788564</v>
       </c>
       <c r="S12">
-        <v>0.0007664472748396537</v>
+        <v>0.0009923541834684524</v>
       </c>
       <c r="T12">
-        <v>0.0008379897121342467</v>
+        <v>0.001011736301949619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H13">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I13">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J13">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.869893</v>
       </c>
       <c r="O13">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P13">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q13">
-        <v>0.1900370180895556</v>
+        <v>0.1828286980724445</v>
       </c>
       <c r="R13">
-        <v>1.710333162806</v>
+        <v>1.645458282652</v>
       </c>
       <c r="S13">
-        <v>1.129000449184185E-06</v>
+        <v>1.768331443688095E-06</v>
       </c>
       <c r="T13">
-        <v>1.234384663458057E-06</v>
+        <v>1.802869525077284E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H14">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I14">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J14">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N14">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O14">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P14">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q14">
-        <v>35.80464385585867</v>
+        <v>38.82791606761867</v>
       </c>
       <c r="R14">
-        <v>322.241794702728</v>
+        <v>349.451244608568</v>
       </c>
       <c r="S14">
-        <v>0.0002127136039205505</v>
+        <v>0.000375546211284872</v>
       </c>
       <c r="T14">
-        <v>0.0002325689157857751</v>
+        <v>0.000382881174228078</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H15">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I15">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J15">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N15">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O15">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P15">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q15">
-        <v>2.852271057928667</v>
+        <v>1.825185551372667</v>
       </c>
       <c r="R15">
-        <v>17.113626347572</v>
+        <v>10.951113308236</v>
       </c>
       <c r="S15">
-        <v>1.694520014031676E-05</v>
+        <v>1.76533172039468E-05</v>
       </c>
       <c r="T15">
-        <v>1.23512765576836E-05</v>
+        <v>1.199874141887468E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6553806666666667</v>
+        <v>0.6305213333333334</v>
       </c>
       <c r="H16">
-        <v>1.966142</v>
+        <v>1.891564</v>
       </c>
       <c r="I16">
-        <v>0.001299484913518232</v>
+        <v>0.001896905195629352</v>
       </c>
       <c r="J16">
-        <v>0.001414607009594434</v>
+        <v>0.001927955138422806</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N16">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O16">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P16">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q16">
-        <v>50.87567258715846</v>
+        <v>52.68606437674267</v>
       </c>
       <c r="R16">
-        <v>457.8810532844261</v>
+        <v>474.174579390684</v>
       </c>
       <c r="S16">
-        <v>0.0003022498341685264</v>
+        <v>0.0005095831522283925</v>
       </c>
       <c r="T16">
-        <v>0.0003304627204532702</v>
+        <v>0.0005195360513011569</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H17">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I17">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J17">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N17">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O17">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P17">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q17">
-        <v>24238.13903453088</v>
+        <v>2613.285814635063</v>
       </c>
       <c r="R17">
-        <v>145428.8342071853</v>
+        <v>15679.71488781038</v>
       </c>
       <c r="S17">
-        <v>0.1439975754854157</v>
+        <v>0.02527587586677527</v>
       </c>
       <c r="T17">
-        <v>0.1049591544348111</v>
+        <v>0.01717970028846514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H18">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I18">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J18">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.869893</v>
       </c>
       <c r="O18">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P18">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q18">
-        <v>35.703525546619</v>
+        <v>4.656760211572333</v>
       </c>
       <c r="R18">
-        <v>214.221153279714</v>
+        <v>27.940561269434</v>
       </c>
       <c r="S18">
-        <v>0.0002121128650871379</v>
+        <v>4.504049744190623E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001546080681514391</v>
+        <v>3.061346918199002E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H19">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I19">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J19">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N19">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O19">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P19">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q19">
-        <v>6726.857900879173</v>
+        <v>988.971078108926</v>
       </c>
       <c r="R19">
-        <v>40361.14740527503</v>
+        <v>5933.826468653556</v>
       </c>
       <c r="S19">
-        <v>0.03996392738656728</v>
+        <v>0.009565394671383421</v>
       </c>
       <c r="T19">
-        <v>0.02912951841201746</v>
+        <v>0.006501480481286055</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H20">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I20">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J20">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N20">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O20">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P20">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q20">
-        <v>535.875239500167</v>
+        <v>46.4886067886405</v>
       </c>
       <c r="R20">
-        <v>2143.500958000668</v>
+        <v>185.954427154562</v>
       </c>
       <c r="S20">
-        <v>0.003183608079017855</v>
+        <v>0.0004496409263114198</v>
       </c>
       <c r="T20">
-        <v>0.00154701128774394</v>
+        <v>0.0002037435851791001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>123.130749</v>
+        <v>16.059769</v>
       </c>
       <c r="H21">
-        <v>246.261498</v>
+        <v>32.119538</v>
       </c>
       <c r="I21">
-        <v>0.2441429215932015</v>
+        <v>0.04831535056182164</v>
       </c>
       <c r="J21">
-        <v>0.1771811198092638</v>
+        <v>0.032737474561192</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N21">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O21">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P21">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q21">
-        <v>9558.352862919752</v>
+        <v>1341.946701369263</v>
       </c>
       <c r="R21">
-        <v>57350.11717751851</v>
+        <v>8051.680208215578</v>
       </c>
       <c r="S21">
-        <v>0.05678569777711343</v>
+        <v>0.01297939859990963</v>
       </c>
       <c r="T21">
-        <v>0.0413908276065399</v>
+        <v>0.008821936737079719</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H22">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I22">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J22">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>196.8487906666667</v>
+        <v>162.7225033333333</v>
       </c>
       <c r="N22">
-        <v>590.546372</v>
+        <v>488.16751</v>
       </c>
       <c r="O22">
-        <v>0.5898085209504823</v>
+        <v>0.5231437953541009</v>
       </c>
       <c r="P22">
-        <v>0.5923834015035012</v>
+        <v>0.5247717033381212</v>
       </c>
       <c r="Q22">
-        <v>132.1547636953844</v>
+        <v>82.87250979595777</v>
       </c>
       <c r="R22">
-        <v>1189.39287325846</v>
+        <v>745.85258816362</v>
       </c>
       <c r="S22">
-        <v>0.0007851248618498454</v>
+        <v>0.0008015484791751568</v>
       </c>
       <c r="T22">
-        <v>0.0008584107199136889</v>
+        <v>0.0008172038851285756</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H23">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I23">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J23">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K23">
         <v>1</v>
@@ -1866,22 +1866,22 @@
         <v>0.869893</v>
       </c>
       <c r="O23">
-        <v>0.0008688061226717314</v>
+        <v>0.0009322191998643353</v>
       </c>
       <c r="P23">
-        <v>0.0008725990010553907</v>
+        <v>0.0009351200601857102</v>
       </c>
       <c r="Q23">
-        <v>0.1946680384572222</v>
+        <v>0.1476751620851111</v>
       </c>
       <c r="R23">
-        <v>1.752012346115</v>
+        <v>1.329076458766</v>
       </c>
       <c r="S23">
-        <v>1.156513110284839E-06</v>
+        <v>1.428324083253953E-06</v>
       </c>
       <c r="T23">
-        <v>1.264465437064574E-06</v>
+        <v>1.456221327073062E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H24">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I24">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J24">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>54.63182800000001</v>
+        <v>61.580654</v>
       </c>
       <c r="N24">
-        <v>163.895484</v>
+        <v>184.741962</v>
       </c>
       <c r="O24">
-        <v>0.1636907067621498</v>
+        <v>0.1979783766474813</v>
       </c>
       <c r="P24">
-        <v>0.1644053183735124</v>
+        <v>0.1985944416431287</v>
       </c>
       <c r="Q24">
-        <v>36.67716878084667</v>
+        <v>31.36224706058267</v>
       </c>
       <c r="R24">
-        <v>330.09451902762</v>
+        <v>282.260223545244</v>
       </c>
       <c r="S24">
-        <v>0.0002178972309956272</v>
+        <v>0.0003033377593706198</v>
       </c>
       <c r="T24">
-        <v>0.0002382363978201571</v>
+        <v>0.0003092623863736357</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H25">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I25">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J25">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.352083</v>
+        <v>2.8947245</v>
       </c>
       <c r="N25">
-        <v>8.704166000000001</v>
+        <v>5.789449</v>
       </c>
       <c r="O25">
-        <v>0.0130399360269903</v>
+        <v>0.009306378223129816</v>
       </c>
       <c r="P25">
-        <v>0.008731242298328987</v>
+        <v>0.00622355841157717</v>
       </c>
       <c r="Q25">
-        <v>2.921778175521667</v>
+        <v>1.474246521339667</v>
       </c>
       <c r="R25">
-        <v>17.53066905313</v>
+        <v>8.845479128038001</v>
       </c>
       <c r="S25">
-        <v>1.735813846029721E-05</v>
+        <v>1.425901134186132E-05</v>
       </c>
       <c r="T25">
-        <v>1.265226535386836E-05</v>
+        <v>9.691673695272648E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.6713516666666667</v>
+        <v>0.5092873333333333</v>
       </c>
       <c r="H26">
-        <v>2.014055</v>
+        <v>1.527862</v>
       </c>
       <c r="I26">
-        <v>0.001331152117952804</v>
+        <v>0.001532176212914103</v>
       </c>
       <c r="J26">
-        <v>0.001449079629400479</v>
+        <v>0.001557256002810873</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>77.62766766666668</v>
+        <v>83.559527</v>
       </c>
       <c r="N26">
-        <v>232.883003</v>
+        <v>250.678581</v>
       </c>
       <c r="O26">
-        <v>0.2325920301377057</v>
+        <v>0.2686392305754237</v>
       </c>
       <c r="P26">
-        <v>0.233607438823602</v>
+        <v>0.2694751765469873</v>
       </c>
       <c r="Q26">
-        <v>52.11546406746279</v>
+        <v>42.55580868042467</v>
       </c>
       <c r="R26">
-        <v>469.039176607165</v>
+        <v>383.002278123822</v>
       </c>
       <c r="S26">
-        <v>0.0003096153735367494</v>
+        <v>0.0004116026389432111</v>
       </c>
       <c r="T26">
-        <v>0.0003385157808757003</v>
+        <v>0.0004196418362863156</v>
       </c>
     </row>
   </sheetData>
